--- a/Bonheur.API/Templates/RequestPricingTemplate.xlsx
+++ b/Bonheur.API/Templates/RequestPricingTemplate.xlsx
@@ -107,8 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,14 +393,15 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
@@ -415,7 +417,7 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
@@ -441,7 +443,7 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -459,5 +461,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>